--- a/scsi2/Scanner File Size.xlsx
+++ b/scsi2/Scanner File Size.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/scsi2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDF866E-56A0-704A-9982-94A190C022EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33388224-E115-4D4A-97DF-BE940AD27EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A858CC69-06A7-744D-A325-4FC29BE3E03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,8 +556,8 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <f>((B17*B12)/B10)*(B14/8)</f>
-        <v>638.5</v>
+        <f>ROUNDDOWN(((B17*B12)/B10)*(B14/8),0)</f>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="B22">
         <f>B20*B21</f>
-        <v>526762.5</v>
+        <v>526350</v>
       </c>
     </row>
   </sheetData>
